--- a/writeup/speed_test_transfer_local.xlsx
+++ b/writeup/speed_test_transfer_local.xlsx
@@ -136,7 +136,68 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Transfer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Speeds for 100 MB Database</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -245,11 +306,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="784342416"/>
-        <c:axId val="784341872"/>
+        <c:axId val="-1813746208"/>
+        <c:axId val="-1813735328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="784342416"/>
+        <c:axId val="-1813746208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,12 +409,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784341872"/>
+        <c:crossAx val="-1813735328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="784341872"/>
+        <c:axId val="-1813735328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -466,7 +527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784342416"/>
+        <c:crossAx val="-1813746208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1077,13 +1138,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -57425,11 +57486,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H17"/>
+  <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -57661,20 +57720,32 @@
         <v>9.3087900000000001</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" ref="H10:H15" si="2">IFERROR(C10/G10,"")</f>
+        <f t="shared" ref="H10:H16" si="2">IFERROR(C10/G10,"")</f>
         <v>10.735397403959054</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="str">
+      <c r="B11" s="1">
+        <v>75</v>
+      </c>
+      <c r="C11" s="4">
+        <v>499.54289999999997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>500</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1023</v>
+      </c>
+      <c r="F11" s="1">
+        <v>23</v>
+      </c>
+      <c r="G11" s="3">
+        <v>66.025000000000006</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>7.5659659219992417</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
@@ -57732,7 +57803,10 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
@@ -57743,6 +57817,15 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
   </sheetData>
   <sortState ref="B3:H9">
     <sortCondition ref="D3:D9"/>

--- a/writeup/speed_test_transfer_local.xlsx
+++ b/writeup/speed_test_transfer_local.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Memory Threshold  (MB)</t>
   </si>
@@ -43,10 +43,13 @@
     <t>Transfer Rate (MB/s)</t>
   </si>
   <si>
-    <t>Total Transfer time (network, fast cluster)</t>
+    <t>Total DB Read time (network, fast cluster)</t>
   </si>
   <si>
     <t>Time to write keys (network, fast cluster, total)</t>
+  </si>
+  <si>
+    <t>Total transfer time (fast)</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -342,11 +345,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="95933774"/>
-        <c:axId val="88670218"/>
+        <c:axId val="93245385"/>
+        <c:axId val="27862050"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95933774"/>
+        <c:axId val="93245385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -355,7 +358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88670218"/>
+        <c:crossAx val="27862050"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="6480">
@@ -367,7 +370,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88670218"/>
+        <c:axId val="27862050"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,7 +379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95933774"/>
+        <c:crossAx val="93245385"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="6480">
@@ -445,10 +448,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:J16"/>
+  <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K2" activeCellId="0" pane="topLeft" sqref="K2"/>
+      <selection activeCell="K4" activeCellId="0" pane="topLeft" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
@@ -494,6 +497,9 @@
       <c r="J2" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="K2" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
       <c r="B3" s="2" t="n">
@@ -587,6 +593,9 @@
       <c r="J5" s="0" t="n">
         <v>29.191</v>
       </c>
+      <c r="K5" s="0" t="n">
+        <v>21.052</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
       <c r="B6" s="2" t="n">
@@ -618,6 +627,9 @@
       <c r="J6" s="0" t="n">
         <v>27.772</v>
       </c>
+      <c r="K6" s="0" t="n">
+        <v>15.806579159</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
       <c r="B7" s="2" t="n">
@@ -649,6 +661,9 @@
       <c r="J7" s="0" t="n">
         <v>32.73</v>
       </c>
+      <c r="K7" s="0" t="n">
+        <v>12.384652482</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
       <c r="B8" s="2" t="n">
@@ -680,6 +695,9 @@
       <c r="J8" s="0" t="n">
         <v>26.115</v>
       </c>
+      <c r="K8" s="0" t="n">
+        <v>10.562</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
       <c r="B9" s="2" t="n">
@@ -709,7 +727,10 @@
         <v>1.88</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>18.862</v>
+        <v>24.77</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>8.29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">

--- a/writeup/speed_test_transfer_local.xlsx
+++ b/writeup/speed_test_transfer_local.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Memory Threshold  (MB)</t>
   </si>
@@ -46,10 +46,19 @@
     <t>Total DB Read time (network, fast cluster)</t>
   </si>
   <si>
+    <t>Total transfer time (fast)</t>
+  </si>
+  <si>
     <t>Time to write keys (network, fast cluster, total)</t>
   </si>
   <si>
-    <t>Total transfer time (fast)</t>
+    <t>DB read time (slow)</t>
+  </si>
+  <si>
+    <t>Transfer time (slow)</t>
+  </si>
+  <si>
+    <t>key write time (slow)</t>
   </si>
 </sst>
 </file>
@@ -232,7 +241,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -345,11 +354,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="93245385"/>
-        <c:axId val="27862050"/>
+        <c:axId val="36798127"/>
+        <c:axId val="27415023"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93245385"/>
+        <c:axId val="36798127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -358,7 +367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="27862050"/>
+        <c:crossAx val="27415023"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="6480">
@@ -370,7 +379,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27862050"/>
+        <c:axId val="27415023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -379,7 +388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93245385"/>
+        <c:crossAx val="36798127"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="6480">
@@ -448,10 +457,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K16"/>
+  <dimension ref="B2:N16"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K4" activeCellId="0" pane="topLeft" sqref="K4"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="L3" activeCellId="0" pane="topLeft" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
@@ -500,6 +509,15 @@
       <c r="K2" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="L2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
       <c r="B3" s="2" t="n">
@@ -528,7 +546,7 @@
       <c r="I3" s="0" t="n">
         <v>464.684925992</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>266.647</v>
       </c>
     </row>
@@ -560,7 +578,19 @@
         <v>30.78851481</v>
       </c>
       <c r="J4" s="0" t="n">
+        <v>37.226</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>32.665</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>133.543</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>146.996</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>90.052</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
@@ -591,10 +621,19 @@
         <v>15.90478433</v>
       </c>
       <c r="J5" s="0" t="n">
+        <v>21.052</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>29.191</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>21.052</v>
+      <c r="L5" s="0" t="n">
+        <v>66.19</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>75.997709406</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>53.497</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
@@ -625,10 +664,19 @@
         <v>10.239797944</v>
       </c>
       <c r="J6" s="0" t="n">
+        <v>15.806579159</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>27.772</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>15.806579159</v>
+      <c r="L6" s="0" t="n">
+        <v>42.659</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>52.313</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>44.189</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
@@ -659,10 +707,19 @@
         <v>6.288</v>
       </c>
       <c r="J7" s="0" t="n">
+        <v>12.384652482</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>32.73</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>12.384652482</v>
+      <c r="L7" s="0" t="n">
+        <v>26.372</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>35.228</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>34.858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
@@ -693,10 +750,19 @@
         <v>3.45</v>
       </c>
       <c r="J8" s="0" t="n">
+        <v>10.562</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>26.115</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <v>10.562</v>
+      <c r="L8" s="0" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>22.1684</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>33.88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
@@ -727,10 +793,19 @@
         <v>1.88</v>
       </c>
       <c r="J9" s="0" t="n">
+        <v>8.29</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>24.77</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>8.29</v>
+      <c r="L9" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>15.605</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>61.067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
@@ -760,8 +835,17 @@
       <c r="I10" s="0" t="n">
         <v>1.385</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>23.918</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>4.234</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>35.731</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
